--- a/设备弱口令/常见安全产品系统默认口令清单.xlsx
+++ b/设备弱口令/常见安全产品系统默认口令清单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Dict\设备弱口令\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F2F3B7-D983-444D-AAC9-F01476B0A19C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="208">
   <si>
     <t>设备</t>
   </si>
@@ -628,19 +634,31 @@
   </si>
   <si>
     <t>https://wenku.baidu.com/view/afcf3447336c1eb91a375dc7.html?from=search</t>
+  </si>
+  <si>
+    <t>启明星辰天镜扫描系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>venustech60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://wenku.baidu.com/view/c8ec179a02768e9950e738cf.html?re=view
+https://wenku.baidu.com/view/b188ba6b7cd184254a353500.html
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">admin（用户管理）
+venus（扫描管理） </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,18 +675,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -676,326 +685,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1062,255 +765,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,11 +787,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1341,62 +802,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1654,27 +1077,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83:D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.65" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="15.65" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:4">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:4">
+    <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1728,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +1179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1770,7 +1193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1784,7 +1207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1798,7 +1221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1812,7 +1235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1826,7 +1249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1854,7 +1277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1868,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1882,8 +1305,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1892,32 +1315,32 @@
       <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1926,32 +1349,32 @@
       <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1960,31 +1383,31 @@
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1998,7 +1421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -2012,7 +1435,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -2026,7 +1449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -2040,7 +1463,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -2054,8 +1477,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2064,22 +1487,22 @@
       <c r="C30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2088,21 +1511,21 @@
       <c r="C32" s="4">
         <v>111111</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -2116,7 +1539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>77</v>
       </c>
@@ -2130,7 +1553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -2144,7 +1567,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>81</v>
       </c>
@@ -2158,7 +1581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
@@ -2172,7 +1595,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
@@ -2186,7 +1609,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>88</v>
       </c>
@@ -2196,11 +1619,11 @@
       <c r="C40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -2210,9 +1633,9 @@
       <c r="C41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -2222,10 +1645,10 @@
       <c r="C42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2234,32 +1657,32 @@
       <c r="C43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
       <c r="B45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
       <c r="B46" s="2" t="s">
         <v>99</v>
       </c>
@@ -2270,7 +1693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -2284,7 +1707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -2298,7 +1721,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>107</v>
       </c>
@@ -2312,8 +1735,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2322,32 +1745,32 @@
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
       <c r="B51" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
       <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="4" t="s">
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2356,21 +1779,21 @@
       <c r="C53" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="4"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
       <c r="B54" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>120</v>
       </c>
@@ -2384,7 +1807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>122</v>
       </c>
@@ -2398,7 +1821,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>124</v>
       </c>
@@ -2412,7 +1835,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>127</v>
       </c>
@@ -2426,7 +1849,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>129</v>
       </c>
@@ -2440,8 +1863,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2450,31 +1873,31 @@
       <c r="C60" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
       <c r="B61" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="4"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
       <c r="B62" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>138</v>
       </c>
@@ -2488,7 +1911,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>141</v>
       </c>
@@ -2502,8 +1925,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2512,51 +1935,51 @@
       <c r="C65" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="4"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
       <c r="B66" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="4"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
       <c r="B67" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="4"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
       <c r="B68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="4"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
       <c r="B69" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>150</v>
       </c>
@@ -2568,7 +1991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>152</v>
       </c>
@@ -2582,7 +2005,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>154</v>
       </c>
@@ -2596,7 +2019,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>157</v>
       </c>
@@ -2610,7 +2033,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>160</v>
       </c>
@@ -2624,7 +2047,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>163</v>
       </c>
@@ -2638,7 +2061,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>165</v>
       </c>
@@ -2652,7 +2075,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>168</v>
       </c>
@@ -2666,7 +2089,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>170</v>
       </c>
@@ -2680,8 +2103,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -2690,21 +2113,21 @@
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="4"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="6"/>
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>176</v>
       </c>
@@ -2718,7 +2141,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>178</v>
       </c>
@@ -2732,8 +2155,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
         <v>180</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -2742,41 +2165,41 @@
       <c r="C83" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="4"/>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
       <c r="B84" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="6"/>
       <c r="B85" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="4"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="6"/>
       <c r="B86" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>187</v>
       </c>
@@ -2786,12 +2209,12 @@
       <c r="C87" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="6" t="s">
         <v>191</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -2804,8 +2227,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4"/>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="6"/>
       <c r="B89" s="2" t="s">
         <v>195</v>
       </c>
@@ -2814,8 +2237,8 @@
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="4"/>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="6"/>
       <c r="B90" s="2" t="s">
         <v>12</v>
       </c>
@@ -2824,19 +2247,19 @@
       </c>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="6"/>
       <c r="B91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>200</v>
       </c>
@@ -2850,7 +2273,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>202</v>
       </c>
@@ -2860,25 +2283,30 @@
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="94" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C98" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="D88:D90"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A88:A91"/>
@@ -2895,13 +2323,23 @@
     <mergeCell ref="D65:D69"/>
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="D83:D86"/>
-    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" display="https://wenku.baidu.com/view/76acf47d941ea76e58fa04df.html?pn=51"/>
-    <hyperlink ref="D93" r:id="rId2" display="https://wenku.baidu.com/view/afcf3447336c1eb91a375dc7.html?from=search"/>
+    <hyperlink ref="D30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D93" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>